--- a/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
+++ b/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01 DOCUEMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t xml:space="preserve">CONTROL DE TURNOS CENTRAL </t>
   </si>
@@ -195,6 +195,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -204,7 +205,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,12 +540,12 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="H2" s="5">
         <v>44392</v>
       </c>
@@ -575,7 +575,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <v>44410</v>
       </c>
     </row>
@@ -599,6 +599,9 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
+      <c r="H7" s="7">
+        <v>44428</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -608,6 +611,9 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">

--- a/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
+++ b/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t xml:space="preserve">CONTROL DE TURNOS CENTRAL </t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>20 HOJAS</t>
+  </si>
+  <si>
+    <t>30 hojas</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,6 +635,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
+      <c r="H10" s="7">
+        <v>44449</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -641,6 +647,9 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">

--- a/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
+++ b/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +208,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +526,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +669,9 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="H13" s="11">
+        <v>44512</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -677,6 +681,9 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
+      <c r="H14">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">

--- a/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
+++ b/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t xml:space="preserve">CONTROL DE TURNOS CENTRAL </t>
   </si>
@@ -199,6 +199,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -208,7 +209,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,12 +544,12 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
       <c r="H2" s="5">
         <v>44392</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="H13" s="11">
+      <c r="H13" s="8">
         <v>44512</v>
       </c>
     </row>
@@ -693,6 +693,9 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
+      <c r="H15" s="7">
+        <v>44530</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -702,6 +705,9 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
+      <c r="H16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">

--- a/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
+++ b/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">CONTROL DE TURNOS CENTRAL </t>
   </si>
@@ -41,20 +41,17 @@
     <t>DIA:</t>
   </si>
   <si>
-    <t>20       HOJAS</t>
-  </si>
-  <si>
     <t>20 HOJAS</t>
   </si>
   <si>
-    <t>30 hojas</t>
+    <t>20 hojas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,27 +84,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -182,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,10 +177,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -526,7 +505,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,18 +523,18 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
       <c r="H2" s="5">
-        <v>44392</v>
+        <v>44530</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="6" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -579,8 +558,8 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="H5" s="7">
-        <v>44410</v>
+      <c r="H5" s="5">
+        <v>44541</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -603,9 +582,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="H7" s="7">
-        <v>44428</v>
-      </c>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -615,9 +592,6 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -636,9 +610,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="H10" s="7">
-        <v>44449</v>
-      </c>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -648,9 +620,6 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -669,9 +638,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="H13" s="8">
-        <v>44512</v>
-      </c>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -681,9 +648,6 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="H14">
-        <v>30</v>
-      </c>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -693,9 +657,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="H15" s="7">
-        <v>44530</v>
-      </c>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -705,9 +667,6 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="H16" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">

--- a/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
+++ b/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t xml:space="preserve">CONTROL DE TURNOS CENTRAL </t>
   </si>
@@ -505,7 +505,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +582,9 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>44569</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -592,6 +594,9 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">

--- a/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
+++ b/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t xml:space="preserve">CONTROL DE TURNOS CENTRAL </t>
   </si>
@@ -505,7 +505,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>44588</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -625,6 +627,9 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">

--- a/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
+++ b/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t xml:space="preserve">CONTROL DE TURNOS CENTRAL </t>
   </si>
@@ -505,7 +505,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,6 +639,9 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
+      <c r="H12" s="5">
+        <v>44604</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -648,7 +651,9 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">

--- a/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
+++ b/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">CONTROL DE TURNOS CENTRAL </t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>20 hojas</t>
+  </si>
+  <si>
+    <t>8 MARZO.,</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +666,9 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -672,7 +678,9 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">

--- a/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
+++ b/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t xml:space="preserve">CONTROL DE TURNOS CENTRAL </t>
   </si>
@@ -508,7 +508,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +533,7 @@
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
       <c r="H2" s="5">
-        <v>44530</v>
+        <v>44569</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="H5" s="5">
-        <v>44541</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="H7" s="5">
-        <v>44569</v>
+        <v>44604</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -609,6 +609,9 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -618,8 +621,8 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="H10" s="5">
-        <v>44588</v>
+      <c r="H10" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,8 +633,8 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="H11" t="s">
-        <v>5</v>
+      <c r="H11" s="5">
+        <v>44645</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,8 +645,8 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="H12" s="5">
-        <v>44604</v>
+      <c r="H12" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -654,9 +657,6 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="H13" s="6" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -666,9 +666,6 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="H14" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -678,9 +675,6 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="H15" s="5" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="16" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">

--- a/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
+++ b/01 DOCUEMENTOS/TURNOS CENTRAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">CONTROL DE TURNOS CENTRAL </t>
   </si>
@@ -508,7 +508,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,6 +657,9 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="H13" s="5">
+        <v>44662</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -666,6 +669,9 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
+      <c r="H14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
